--- a/media/ViewUploadedBills/836086478_May_2025.xlsx
+++ b/media/ViewUploadedBills/836086478_May_2025.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="159">
   <si>
     <t>Company</t>
   </si>
@@ -88,7 +88,7 @@
     <t>2025</t>
   </si>
   <si>
-    <t>$1584.65</t>
+    <t>$1268.73</t>
   </si>
   <si>
     <t>Wireless Number</t>
@@ -112,9 +112,18 @@
     <t>Monthly Charges</t>
   </si>
   <si>
+    <t>480-399-4009</t>
+  </si>
+  <si>
     <t>618-203-0793</t>
   </si>
   <si>
+    <t>618-365-3901</t>
+  </si>
+  <si>
+    <t>618-790-4013</t>
+  </si>
+  <si>
     <t>816-977-8191</t>
   </si>
   <si>
@@ -130,72 +139,72 @@
     <t>480-408-5024</t>
   </si>
   <si>
+    <t>618-790-6692</t>
+  </si>
+  <si>
+    <t>805-844-8892</t>
+  </si>
+  <si>
+    <t>816-225-5230</t>
+  </si>
+  <si>
+    <t>816-489-2067</t>
+  </si>
+  <si>
+    <t>816-489-9229</t>
+  </si>
+  <si>
+    <t>480-306-0382</t>
+  </si>
+  <si>
+    <t>903-229-8926</t>
+  </si>
+  <si>
+    <t>816-804-6156</t>
+  </si>
+  <si>
+    <t>618-542-7702</t>
+  </si>
+  <si>
+    <t>321-402-2888</t>
+  </si>
+  <si>
+    <t>618-790-3624</t>
+  </si>
+  <si>
+    <t>618-790-6231</t>
+  </si>
+  <si>
+    <t>903-851-3809</t>
+  </si>
+  <si>
     <t>618-790-5244</t>
   </si>
   <si>
     <t>618-924-3268</t>
   </si>
   <si>
-    <t>805-844-8892</t>
-  </si>
-  <si>
-    <t>816-225-5230</t>
-  </si>
-  <si>
-    <t>816-489-2067</t>
-  </si>
-  <si>
-    <t>816-489-9229</t>
-  </si>
-  <si>
     <t>816-896-3612</t>
   </si>
   <si>
-    <t>480-306-0382</t>
-  </si>
-  <si>
     <t>480-371-5400</t>
   </si>
   <si>
-    <t>903-229-8926</t>
-  </si>
-  <si>
-    <t>816-804-6156</t>
-  </si>
-  <si>
-    <t>618-542-7702</t>
-  </si>
-  <si>
     <t>618-790-6117</t>
   </si>
   <si>
-    <t>903-851-3809</t>
-  </si>
-  <si>
-    <t>480-399-4009</t>
-  </si>
-  <si>
-    <t>618-365-3901</t>
-  </si>
-  <si>
-    <t>618-790-4013</t>
-  </si>
-  <si>
-    <t>618-790-6692</t>
-  </si>
-  <si>
-    <t>321-402-2888</t>
-  </si>
-  <si>
-    <t>618-790-3624</t>
-  </si>
-  <si>
-    <t>618-790-6231</t>
+    <t>NICK RENTERIA</t>
   </si>
   <si>
     <t>IL SHIPPING</t>
   </si>
   <si>
+    <t>GABRIEL PIKE</t>
+  </si>
+  <si>
+    <t>MARCUS MARSHALL</t>
+  </si>
+  <si>
     <t>JACOB FRANCIS</t>
   </si>
   <si>
@@ -205,16 +214,13 @@
     <t>EDDIE M. BOZARTH</t>
   </si>
   <si>
-    <t>BENJAMIN M. WIELAND</t>
+    <t>BENJAMIN M. W...</t>
   </si>
   <si>
     <t>MARLA ERICKSON</t>
   </si>
   <si>
-    <t>CHAD KAUTZ</t>
-  </si>
-  <si>
-    <t>DON KAUTZ</t>
+    <t>CLAY PIKE</t>
   </si>
   <si>
     <t>MADISON FRANCIS</t>
@@ -223,21 +229,15 @@
     <t>BRIAN STACK</t>
   </si>
   <si>
-    <t>CHRISTINA FRANCIS</t>
+    <t>CHRISTINA FRA...</t>
   </si>
   <si>
     <t>MARY PLASKETT</t>
   </si>
   <si>
-    <t>JOYCE BOZARTH</t>
-  </si>
-  <si>
     <t>KEN SCAGLIONE</t>
   </si>
   <si>
-    <t>AZ PLANT AIRCARD</t>
-  </si>
-  <si>
     <t>TX PLANT AIRCARD</t>
   </si>
   <si>
@@ -247,7 +247,13 @@
     <t>IL PLANT AIRCARD</t>
   </si>
   <si>
-    <t>JASON FAIRCHILD</t>
+    <t>LUZ ROLON</t>
+  </si>
+  <si>
+    <t>SETH DIXON</t>
+  </si>
+  <si>
+    <t>DANA JOHNSON</t>
   </si>
   <si>
     <t>CLINT PERKINS</t>
@@ -256,75 +262,90 @@
     <t>Active</t>
   </si>
   <si>
-    <t>Talk Used Plan minutes (unlimited) 148, Text Used Plan messages (unlimited) 332, Data Used UNLIMITED QCI8 - 50 DATA ALLOW 5.06,</t>
-  </si>
-  <si>
-    <t>Talk Used Plan minutes (unlimited) 221, Text Used Plan messages (unlimited) 213, Data Used UNLIMITED QCI8 - 50 5G DATA ALL 71.09,</t>
-  </si>
-  <si>
-    <t>Talk Used Plan minutes (unlimited) 302,</t>
-  </si>
-  <si>
-    <t>Talk Used Plan minutes (unlimited) 64, Text Used $0.26 Plan messages (unlimited) 3, Data Used Government fees &amp; taxes Bus. Unlim Plus with Private WiFi 19.27,</t>
-  </si>
-  <si>
-    <t>Talk Used Plan minutes (unlimited) 364, Text Used $0.26 Plan messages (unlimited) 48, Data Used Government fees &amp; taxes Bus. Unlim Plus with Private WiFi 90.98,</t>
-  </si>
-  <si>
-    <t>Talk Used $0.00 Plan minutes (unlimited) 1,213, Text Used $0.20 Plan messages (unlimited) 491, Data Used $0.02 Bus. Unlim Plus with Private WiFi 2.99,</t>
-  </si>
-  <si>
-    <t>Talk Used $0.00 Plan minutes (unlimited) 996, Text Used $0.20 Plan messages (unlimited) 414, Data Used $0.02 Bus. Unlim Plus with Private WiFi 1.71,</t>
-  </si>
-  <si>
-    <t>Talk Used Plan minutes (unlimited) 288, Text Used $0.19 Plan messages (unlimited) 206, Data Used $0.39 Bus. Unlim Plus with Private WiFi 50.32,</t>
-  </si>
-  <si>
-    <t>Talk Used $0.00 Plan minutes (unlimited) 735, Text Used $0.39 Plan messages (unlimited) 507, Data Used Bus. Unlim Plus with Private WiFi 27.02,</t>
-  </si>
-  <si>
-    <t>Talk Used $0.00 Plan minutes (unlimited) 574, Text Used Company fees &amp; surcharges Plan messages (unlimited) 7, Data Used $0.26 Bus. Unlim Plus with Private WiFi 0.01,</t>
-  </si>
-  <si>
-    <t>Talk Used $0.00 Plan minutes (unlimited) 361, Text Used Company fees &amp; surcharges Plan messages (unlimited) 172, Data Used $0.11 Bus. Unlim Plus with Private WiFi 20.33,</t>
-  </si>
-  <si>
-    <t>Data Used $0.00 Bus. Unlim Plus with Private WiFi 0.07,</t>
-  </si>
-  <si>
-    <t>Data Used $0.26 Hotspot Wireless Internet Unlim 1.46,</t>
+    <t>Talk Used Plan minutes (unlimited) 821, Text Used 7 of 36, Text Used Plan messages (unlimited) 88, Data Used $0.14 UNLIMITED QCI8 - 75 5G DATA ALL 15.45, Data Used APPLEIPHONE 16 PLUS 280000075570543, Data Used $53.34 Established on Oct 29, 2024,</t>
+  </si>
+  <si>
+    <t>Talk Used Plan minutes (unlimited) 1,000, Text Used Plan messages (unlimited) 10, Data Used UNLIMITED QCI8 - 75 DATA ALL 3.79,</t>
+  </si>
+  <si>
+    <t>Talk Used Plan minutes (unlimited) 1, Talk Used of 36, Data Used UNLIMITED QCI8 - 75 5G DATA ALL 0.30, Data Used APPLEIPHONE 14 128GB 280000070791972, Data Used Government fees &amp; taxes Established on Feb 26, 2024,</t>
+  </si>
+  <si>
+    <t>Talk Used Plan minutes (unlimited) 85, Text Used Plan messages (unlimited) 13,</t>
+  </si>
+  <si>
+    <t>Talk Used Plan minutes (unlimited) 470, Text Used Plan messages (unlimited) 208, Data Used UNLIMITED QCI8 - 75 5G DATA ALL 60.48,</t>
+  </si>
+  <si>
+    <t>Talk Used Plan minutes (unlimited) 1,227, Text Used Plan messages (unlimited) 80, Data Used UNLIMITED QCI8 - 75 5G DATA ALL 0.38,</t>
+  </si>
+  <si>
+    <t>Talk Used $0.00 Plan minutes (unlimited) 38, Talk Used Call over Wi-Fi 23, Text Used $0.26 Plan messages (unlimited) 20, Data Used Government fees &amp; taxes Bus. Unlim Plus with Private WiFi 44.47,</t>
+  </si>
+  <si>
+    <t>Talk Used $0.00 Plan minutes (unlimited) 256, Text Used $0.35 Plan messages (unlimited) 39, Data Used Bus. Unlim Plus with Private WiFi 45.54,</t>
+  </si>
+  <si>
+    <t>Talk Used Plan minutes (unlimited) 7,</t>
+  </si>
+  <si>
+    <t>Talk Used Plan minutes (unlimited) 1,561, Text Used $0.02 Plan messages (unlimited) 2, Data Used Bus. Unlim Plus with Private WiFi 0.07,</t>
+  </si>
+  <si>
+    <t>Talk Used $0.00 Plan minutes (unlimited) 1,204, Text Used $0.20 Plan messages (unlimited) 66, Data Used $0.02 Bus. Unlim Plus with Private WiFi 10.04,</t>
+  </si>
+  <si>
+    <t>Talk Used Plan minutes (unlimited) 3,395, Text Used $0.18 Plan messages (unlimited) 92, Data Used $0.44 Bus. Unlim Plus with Private WiFi 26.80,</t>
+  </si>
+  <si>
+    <t>Talk Used $0.00 Plan minutes (unlimited) 9, Text Used Company fees &amp; surcharges Plan messages (unlimited) 144, Data Used $1.50 Bus. Unlim Plus with Private WiFi 0.16,</t>
+  </si>
+  <si>
+    <t>Talk Used Plan minutes (unlimited) 251, Data Used $0.40 Bus. Unlim Plus with Private WiFi 0.14,</t>
+  </si>
+  <si>
+    <t>Data Used $0.00 Bus. Unlim Plus with Private WiFi 0.00,</t>
   </si>
   <si>
     <t>Data Used $0.26 Hotspot Wireless Internet Unlim 0.01,</t>
   </si>
   <si>
-    <t>Talk Used Company fees &amp; surcharges Daytime minutes (unlimited) 199, Talk Used $1.05 Night &amp; Weekend minutes 94, Text Used Unlimited Domestic Messaging 801, Data Used Unlimited Dist 5G iPhone w/VVM 9,927,</t>
-  </si>
-  <si>
-    <t>Talk Used Daytime minutes (unlimited) 2,085,</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>75.00</t>
+    <t>Data Used $0.26 Hotspot Wireless Internet Unlim 0.00,</t>
+  </si>
+  <si>
+    <t>Talk Used Company fees &amp; surcharges Daytime minutes (unlimited) 1,137, Talk Used $2.95 Night &amp; Weekend minutes 4, Text Used Government fees &amp; taxes Unlimited Domestic Messaging 102,</t>
+  </si>
+  <si>
+    <t>Talk Used $1.34 Daytime minutes (unlimited) 1,103, Talk Used $0.02 Night &amp; Weekend minutes 236, Text Used Government fees &amp; taxes Unlimited Domestic Messaging 22, Data Used Unlimited Dist 5G iPhone w/VVM 1,258,</t>
+  </si>
+  <si>
+    <t>Talk Used Company fees &amp; surcharges Daytime minutes (unlimited) 1,729, Talk Used $1.34 Night &amp; Weekend minutes 52, Text Used Unlimited Domestic Messaging 519, Data Used Unlimited Dist 5G iPhone w/VVM 2,021,</t>
+  </si>
+  <si>
+    <t>50.84</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>45.99</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>35.00</t>
   </si>
   <si>
     <t>60.00</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>40.00</t>
+    <t>72.00</t>
   </si>
   <si>
     <t>85.00</t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
     <t>Item Category</t>
   </si>
   <si>
@@ -367,10 +388,37 @@
     <t>REGULATORY COST RECOVERY CHARGE</t>
   </si>
   <si>
+    <t>AP 8GB BLACK - INSTALLMENT</t>
+  </si>
+  <si>
+    <t>AT&amp;T BUSINESS UNLIMITED ADVANCED - 5+ LINES</t>
+  </si>
+  <si>
+    <t>PLAN MESSAGES</t>
+  </si>
+  <si>
     <t>BUSINESS UNLIMITED PERFORMANCE - 5+ LINES</t>
   </si>
   <si>
-    <t>PLAN MESSAGES</t>
+    <t>IL TELECOM RELAY SERVICE</t>
+  </si>
+  <si>
+    <t>IL 911 SURCHARGE</t>
+  </si>
+  <si>
+    <t>STATE/MUNICIPAL TELECOMMUNICATIONS TAX</t>
+  </si>
+  <si>
+    <t>AP 128GB MIDNIGHT - IN</t>
+  </si>
+  <si>
+    <t>SMARTPHONE OF 36</t>
+  </si>
+  <si>
+    <t>PROMOTIONAL OF 999</t>
+  </si>
+  <si>
+    <t>SMARTPHONE PORT-IN OF 36</t>
   </si>
   <si>
     <t>COUNTY COMMUNICATIONS TAX</t>
@@ -388,43 +436,40 @@
     <t>DISCOUNT FOR SMARTPHONE ACCESS CHARGE</t>
   </si>
   <si>
+    <t>COUNTY SALES TAX - TELECOM</t>
+  </si>
+  <si>
+    <t>LOCAL 1 SURCHARGE</t>
+  </si>
+  <si>
+    <t>MO STATE SALES TAX - TELECOM</t>
+  </si>
+  <si>
+    <t>NUMBERSYNC</t>
+  </si>
+  <si>
+    <t>MUNICIPAL GROSS RECEIPTS SURCHARGE</t>
+  </si>
+  <si>
+    <t>CITY SALES TAX - TELECOM</t>
+  </si>
+  <si>
     <t>ACCESS FOR G LTE W/ VVM</t>
   </si>
   <si>
     <t>AT&amp;T PRIVATE WI-FI VPN AND WI-FI ALERTS</t>
   </si>
   <si>
-    <t>COUNTY SALES TAX - TELECOM</t>
-  </si>
-  <si>
-    <t>LOCAL 1 SURCHARGE</t>
-  </si>
-  <si>
-    <t>MO STATE SALES TAX - TELECOM</t>
-  </si>
-  <si>
-    <t>NUMBERSYNC</t>
-  </si>
-  <si>
-    <t>MUNICIPAL GROSS RECEIPTS SURCHARGE</t>
-  </si>
-  <si>
-    <t>CITY SALES TAX - TELECOM</t>
+    <t>TX STATE COST RECOVERY CHARGE</t>
   </si>
   <si>
     <t>ACCESS FOR MOBILE HOTSPOT UNLIM LTE</t>
   </si>
   <si>
-    <t>TX STATE COST RECOVERY CHARGE</t>
-  </si>
-  <si>
-    <t>IL TELECOM RELAY SERVICE</t>
-  </si>
-  <si>
-    <t>IL 911 SURCHARGE</t>
-  </si>
-  <si>
-    <t>STATE/MUNICIPAL TELECOMMUNICATIONS TAX</t>
+    <t>MOB SELECT GB W/VVM G+/5G IPHONE</t>
+  </si>
+  <si>
+    <t>NATIONAL ACCOUNT DISCOUNT</t>
   </si>
   <si>
     <t>BIZINTLTRVL DATA(MAX256KBPS)&amp;$0.25/MIN&amp;UNLMSG</t>
@@ -443,30 +488,6 @@
   </si>
   <si>
     <t>TX STATE SALES TAX - TELECOM</t>
-  </si>
-  <si>
-    <t>AP 8GB BLACK - INSTALLMENT</t>
-  </si>
-  <si>
-    <t>AT&amp;T BUSINESS UNLIMITED ADVANCED - 5+ LINES</t>
-  </si>
-  <si>
-    <t>AP 128GB MIDNIGHT - IN</t>
-  </si>
-  <si>
-    <t>SMARTPHONE OF 36</t>
-  </si>
-  <si>
-    <t>PROMOTIONAL OF 999</t>
-  </si>
-  <si>
-    <t>SMARTPHONE PORT-IN OF 36</t>
-  </si>
-  <si>
-    <t>MOB SELECT GB W/VVM G+/5G IPHONE</t>
-  </si>
-  <si>
-    <t>NATIONAL ACCOUNT DISCOUNT</t>
   </si>
   <si>
     <t>Total Charges</t>
@@ -978,13 +999,13 @@
         <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -998,13 +1019,13 @@
         <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1018,13 +1039,13 @@
         <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1038,13 +1059,13 @@
         <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1058,13 +1079,13 @@
         <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1078,10 +1099,13 @@
         <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>86</v>
       </c>
       <c r="H7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1095,13 +1119,13 @@
         <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1115,13 +1139,13 @@
         <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1135,13 +1159,13 @@
         <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1155,10 +1179,13 @@
         <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="G11" t="s">
+        <v>90</v>
       </c>
       <c r="H11" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1172,13 +1199,13 @@
         <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H12" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1192,13 +1219,13 @@
         <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1212,13 +1239,13 @@
         <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H14" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1232,13 +1259,13 @@
         <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H15" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1252,13 +1279,13 @@
         <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H16" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1272,13 +1299,13 @@
         <v>73</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H17" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1292,13 +1319,13 @@
         <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1312,13 +1339,13 @@
         <v>75</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1332,13 +1359,13 @@
         <v>76</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H20" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1352,13 +1379,10 @@
         <v>77</v>
       </c>
       <c r="F21" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1368,8 +1392,17 @@
       <c r="B22" t="s">
         <v>51</v>
       </c>
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="G22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1379,8 +1412,17 @@
       <c r="B23" t="s">
         <v>52</v>
       </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
       <c r="F23" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="G23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1391,7 +1433,7 @@
         <v>53</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1402,7 +1444,7 @@
         <v>54</v>
       </c>
       <c r="F25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1413,7 +1455,7 @@
         <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1424,7 +1466,7 @@
         <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1435,7 +1477,7 @@
         <v>57</v>
       </c>
       <c r="F28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1445,7 +1487,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G242"/>
+  <dimension ref="A1:G197"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1465,13 +1507,13 @@
         <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1485,10 +1527,10 @@
         <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G2">
         <v>0.2</v>
@@ -1505,13 +1547,13 @@
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="G3">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1525,13 +1567,13 @@
         <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G4">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1545,13 +1587,13 @@
         <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F5" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G5">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1565,13 +1607,13 @@
         <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G6">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1585,10 +1627,10 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="G7">
         <v>0.26</v>
@@ -1605,10 +1647,10 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G8">
         <v>1.5</v>
@@ -1625,13 +1667,13 @@
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G9">
-        <v>40</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1645,13 +1687,13 @@
         <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1659,19 +1701,19 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1685,13 +1727,13 @@
         <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G12">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1705,13 +1747,13 @@
         <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G13">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1725,13 +1767,13 @@
         <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F14" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G14">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1745,13 +1787,13 @@
         <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F15" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G15">
-        <v>0.37</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1765,13 +1807,13 @@
         <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F16" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G16">
-        <v>0.26</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1785,13 +1827,13 @@
         <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F17" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G17">
-        <v>1.5</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1805,13 +1847,13 @@
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F18" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G18">
-        <v>40</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1825,13 +1867,13 @@
         <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F19" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1839,19 +1881,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F20" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G20">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1865,13 +1907,13 @@
         <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F21" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G21">
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1885,13 +1927,13 @@
         <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F22" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="G22">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1905,13 +1947,13 @@
         <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F23" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G23">
-        <v>0.02</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1925,13 +1967,13 @@
         <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F24" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G24">
-        <v>0.46</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1945,13 +1987,13 @@
         <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F25" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="G25">
-        <v>0.26</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1965,13 +2007,13 @@
         <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F26" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="G26">
-        <v>1.5</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1985,13 +2027,13 @@
         <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F27" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="G27">
-        <v>65</v>
+        <v>20.28</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2005,13 +2047,13 @@
         <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F28" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2019,19 +2061,19 @@
         <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F29" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="G29">
-        <v>0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2039,19 +2081,19 @@
         <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F30" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="G30">
-        <v>0.26</v>
+        <v>-14.29</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2059,19 +2101,19 @@
         <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F31" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="G31">
-        <v>1.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2079,19 +2121,19 @@
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F32" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="G32">
-        <v>0.4</v>
+        <v>9.73</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2105,13 +2147,13 @@
         <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F33" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G33">
-        <v>0.08</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2125,13 +2167,13 @@
         <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F34" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G34">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2145,13 +2187,13 @@
         <v>61</v>
       </c>
       <c r="E35" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G35">
-        <v>60</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2165,13 +2207,13 @@
         <v>61</v>
       </c>
       <c r="E36" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2185,13 +2227,13 @@
         <v>61</v>
       </c>
       <c r="E37" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F37" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G37">
-        <v>-25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2205,13 +2247,13 @@
         <v>61</v>
       </c>
       <c r="E38" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F38" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2219,19 +2261,19 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F39" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="G39">
-        <v>0.35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2239,19 +2281,19 @@
         <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F40" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G40">
-        <v>0.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2259,19 +2301,19 @@
         <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E41" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F41" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="G41">
-        <v>1.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2285,13 +2327,13 @@
         <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F42" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G42">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2305,13 +2347,13 @@
         <v>62</v>
       </c>
       <c r="E43" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G43">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2325,13 +2367,13 @@
         <v>62</v>
       </c>
       <c r="E44" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G44">
-        <v>0.22</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2345,13 +2387,13 @@
         <v>62</v>
       </c>
       <c r="E45" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G45">
-        <v>60</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2365,13 +2407,13 @@
         <v>62</v>
       </c>
       <c r="E46" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2385,13 +2427,13 @@
         <v>62</v>
       </c>
       <c r="E47" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G47">
-        <v>-25</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2405,13 +2447,13 @@
         <v>62</v>
       </c>
       <c r="E48" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F48" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2419,19 +2461,19 @@
         <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E49" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F49" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="G49">
-        <v>0.2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2439,19 +2481,19 @@
         <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E50" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F50" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="G50">
-        <v>0.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2465,13 +2507,13 @@
         <v>63</v>
       </c>
       <c r="E51" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F51" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G51">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2485,13 +2527,13 @@
         <v>63</v>
       </c>
       <c r="E52" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F52" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G52">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2505,13 +2547,13 @@
         <v>63</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F53" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G53">
-        <v>0.44</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2525,13 +2567,13 @@
         <v>63</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F54" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G54">
-        <v>0.26</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2545,13 +2587,13 @@
         <v>63</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F55" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G55">
-        <v>1.5</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2565,13 +2607,13 @@
         <v>63</v>
       </c>
       <c r="E56" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F56" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G56">
-        <v>60</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2585,13 +2627,13 @@
         <v>63</v>
       </c>
       <c r="E57" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F57" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2605,13 +2647,13 @@
         <v>63</v>
       </c>
       <c r="E58" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2619,19 +2661,19 @@
         <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E59" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G59">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2645,13 +2687,13 @@
         <v>64</v>
       </c>
       <c r="E60" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F60" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G60">
-        <v>0.19</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2665,13 +2707,13 @@
         <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F61" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G61">
-        <v>0.14</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2685,13 +2727,13 @@
         <v>64</v>
       </c>
       <c r="E62" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F62" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G62">
-        <v>0.02</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2705,13 +2747,13 @@
         <v>64</v>
       </c>
       <c r="E63" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F63" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G63">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2725,13 +2767,13 @@
         <v>64</v>
       </c>
       <c r="E64" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F64" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="G64">
-        <v>0.26</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2745,13 +2787,13 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F65" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="G65">
-        <v>1.25</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2765,10 +2807,10 @@
         <v>64</v>
       </c>
       <c r="E66" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F66" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G66">
         <v>60</v>
@@ -2785,10 +2827,10 @@
         <v>64</v>
       </c>
       <c r="E67" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F67" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -2805,13 +2847,13 @@
         <v>64</v>
       </c>
       <c r="E68" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F68" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2825,10 +2867,10 @@
         <v>64</v>
       </c>
       <c r="E69" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F69" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -2845,13 +2887,13 @@
         <v>65</v>
       </c>
       <c r="E70" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F70" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G70">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2865,13 +2907,13 @@
         <v>65</v>
       </c>
       <c r="E71" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F71" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G71">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2885,13 +2927,13 @@
         <v>65</v>
       </c>
       <c r="E72" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F72" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G72">
-        <v>0.14</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2905,13 +2947,13 @@
         <v>65</v>
       </c>
       <c r="E73" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F73" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G73">
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2925,13 +2967,13 @@
         <v>65</v>
       </c>
       <c r="E74" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F74" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="G74">
-        <v>0.39</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2945,13 +2987,13 @@
         <v>65</v>
       </c>
       <c r="E75" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F75" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="G75">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2965,13 +3007,13 @@
         <v>65</v>
       </c>
       <c r="E76" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F76" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="G76">
-        <v>1.25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2985,13 +3027,13 @@
         <v>65</v>
       </c>
       <c r="E77" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F77" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="G77">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3005,13 +3047,13 @@
         <v>65</v>
       </c>
       <c r="E78" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F78" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3025,10 +3067,10 @@
         <v>65</v>
       </c>
       <c r="E79" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F79" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -3039,19 +3081,19 @@
         <v>19</v>
       </c>
       <c r="B80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C80" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E80" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F80" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3065,13 +3107,13 @@
         <v>66</v>
       </c>
       <c r="E81" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F81" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G81">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3085,10 +3127,10 @@
         <v>66</v>
       </c>
       <c r="E82" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F82" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G82">
         <v>0.15</v>
@@ -3105,13 +3147,13 @@
         <v>66</v>
       </c>
       <c r="E83" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F83" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G83">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3125,13 +3167,13 @@
         <v>66</v>
       </c>
       <c r="E84" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F84" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G84">
-        <v>0.02</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3145,13 +3187,13 @@
         <v>66</v>
       </c>
       <c r="E85" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F85" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G85">
-        <v>0.35</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3165,13 +3207,13 @@
         <v>66</v>
       </c>
       <c r="E86" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F86" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G86">
-        <v>0.26</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3185,13 +3227,13 @@
         <v>66</v>
       </c>
       <c r="E87" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F87" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="G87">
-        <v>1.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3205,13 +3247,13 @@
         <v>66</v>
       </c>
       <c r="E88" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F88" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="G88">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3225,10 +3267,10 @@
         <v>66</v>
       </c>
       <c r="E89" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F89" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -3239,19 +3281,19 @@
         <v>19</v>
       </c>
       <c r="B90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C90" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E90" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F90" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G90">
-        <v>-25</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3259,19 +3301,19 @@
         <v>19</v>
       </c>
       <c r="B91" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C91" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E91" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F91" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3285,13 +3327,13 @@
         <v>67</v>
       </c>
       <c r="E92" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F92" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="G92">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3305,13 +3347,13 @@
         <v>67</v>
       </c>
       <c r="E93" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F93" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="G93">
-        <v>0.18</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3325,13 +3367,13 @@
         <v>67</v>
       </c>
       <c r="E94" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F94" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="G94">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3345,13 +3387,13 @@
         <v>67</v>
       </c>
       <c r="E95" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F95" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="G95">
-        <v>0.02</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3365,13 +3407,13 @@
         <v>67</v>
       </c>
       <c r="E96" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F96" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="G96">
-        <v>0.44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3385,13 +3427,13 @@
         <v>67</v>
       </c>
       <c r="E97" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F97" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="G97">
-        <v>0.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3405,13 +3447,13 @@
         <v>67</v>
       </c>
       <c r="E98" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F98" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G98">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3419,19 +3461,19 @@
         <v>19</v>
       </c>
       <c r="B99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C99" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E99" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F99" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G99">
-        <v>60</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3439,19 +3481,19 @@
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C100" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E100" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F100" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3459,19 +3501,19 @@
         <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C101" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E101" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F101" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3485,13 +3527,13 @@
         <v>68</v>
       </c>
       <c r="E102" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F102" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G102">
-        <v>0.35</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3505,13 +3547,13 @@
         <v>68</v>
       </c>
       <c r="E103" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F103" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G103">
-        <v>0.26</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3525,13 +3567,13 @@
         <v>68</v>
       </c>
       <c r="E104" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F104" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G104">
-        <v>1.5</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3545,13 +3587,13 @@
         <v>68</v>
       </c>
       <c r="E105" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F105" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G105">
-        <v>0.04</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3565,13 +3607,13 @@
         <v>68</v>
       </c>
       <c r="E106" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F106" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3585,13 +3627,13 @@
         <v>68</v>
       </c>
       <c r="E107" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F107" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G107">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3605,13 +3647,13 @@
         <v>68</v>
       </c>
       <c r="E108" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F108" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="G108">
-        <v>60</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3625,10 +3667,10 @@
         <v>68</v>
       </c>
       <c r="E109" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F109" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3639,19 +3681,19 @@
         <v>19</v>
       </c>
       <c r="B110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C110" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E110" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F110" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G110">
-        <v>-25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3659,19 +3701,19 @@
         <v>19</v>
       </c>
       <c r="B111" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C111" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E111" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F111" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3679,19 +3721,19 @@
         <v>19</v>
       </c>
       <c r="B112" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C112" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E112" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F112" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3705,13 +3747,13 @@
         <v>69</v>
       </c>
       <c r="E113" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F113" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G113">
-        <v>0.44</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3725,13 +3767,13 @@
         <v>69</v>
       </c>
       <c r="E114" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F114" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G114">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3745,10 +3787,10 @@
         <v>69</v>
       </c>
       <c r="E115" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F115" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="G115">
         <v>0.26</v>
@@ -3765,10 +3807,10 @@
         <v>69</v>
       </c>
       <c r="E116" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F116" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G116">
         <v>1.5</v>
@@ -3785,13 +3827,13 @@
         <v>69</v>
       </c>
       <c r="E117" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F117" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G117">
-        <v>0.13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3805,13 +3847,13 @@
         <v>69</v>
       </c>
       <c r="E118" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F118" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G118">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3825,13 +3867,13 @@
         <v>69</v>
       </c>
       <c r="E119" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F119" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3839,19 +3881,19 @@
         <v>19</v>
       </c>
       <c r="B120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C120" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E120" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F120" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G120">
-        <v>0.19</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3859,19 +3901,19 @@
         <v>19</v>
       </c>
       <c r="B121" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C121" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E121" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F121" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G121">
-        <v>60</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3879,19 +3921,19 @@
         <v>19</v>
       </c>
       <c r="B122" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C122" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E122" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F122" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3899,19 +3941,19 @@
         <v>19</v>
       </c>
       <c r="B123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C123" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E123" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F123" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3925,13 +3967,13 @@
         <v>70</v>
       </c>
       <c r="E124" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F124" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="G124">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3945,13 +3987,13 @@
         <v>70</v>
       </c>
       <c r="E125" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F125" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="G125">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3965,13 +4007,13 @@
         <v>70</v>
       </c>
       <c r="E126" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F126" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="G126">
-        <v>0.11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3985,13 +4027,13 @@
         <v>70</v>
       </c>
       <c r="E127" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F127" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="G127">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4005,13 +4047,13 @@
         <v>70</v>
       </c>
       <c r="E128" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F128" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="G128">
-        <v>0.29</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4025,13 +4067,13 @@
         <v>70</v>
       </c>
       <c r="E129" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F129" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="G129">
-        <v>0.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4045,13 +4087,13 @@
         <v>70</v>
       </c>
       <c r="E130" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F130" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G130">
-        <v>1.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4059,19 +4101,19 @@
         <v>19</v>
       </c>
       <c r="B131" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C131" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E131" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F131" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G131">
-        <v>60</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4079,19 +4121,19 @@
         <v>19</v>
       </c>
       <c r="B132" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C132" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E132" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F132" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4099,19 +4141,19 @@
         <v>19</v>
       </c>
       <c r="B133" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C133" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E133" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F133" t="s">
         <v>121</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4119,19 +4161,19 @@
         <v>19</v>
       </c>
       <c r="B134" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C134" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E134" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F134" t="s">
         <v>122</v>
       </c>
       <c r="G134">
-        <v>-25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4139,19 +4181,19 @@
         <v>19</v>
       </c>
       <c r="B135" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C135" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E135" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F135" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4165,13 +4207,13 @@
         <v>71</v>
       </c>
       <c r="E136" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F136" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="G136">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4185,13 +4227,13 @@
         <v>71</v>
       </c>
       <c r="E137" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F137" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="G137">
-        <v>0.15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4205,13 +4247,13 @@
         <v>71</v>
       </c>
       <c r="E138" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F138" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="G138">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4225,13 +4267,13 @@
         <v>71</v>
       </c>
       <c r="E139" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F139" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="G139">
-        <v>0.02</v>
+        <v>60</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4245,13 +4287,13 @@
         <v>71</v>
       </c>
       <c r="E140" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F140" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="G140">
-        <v>0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4265,13 +4307,13 @@
         <v>71</v>
       </c>
       <c r="E141" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F141" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G141">
-        <v>0.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4279,19 +4321,19 @@
         <v>19</v>
       </c>
       <c r="B142" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C142" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E142" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F142" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G142">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4299,19 +4341,19 @@
         <v>19</v>
       </c>
       <c r="B143" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C143" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E143" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F143" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G143">
-        <v>60</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4319,19 +4361,19 @@
         <v>19</v>
       </c>
       <c r="B144" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C144" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E144" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F144" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4339,19 +4381,19 @@
         <v>19</v>
       </c>
       <c r="B145" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C145" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E145" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F145" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4359,19 +4401,19 @@
         <v>19</v>
       </c>
       <c r="B146" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C146" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E146" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F146" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G146">
-        <v>-25</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4379,19 +4421,19 @@
         <v>19</v>
       </c>
       <c r="B147" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C147" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E147" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F147" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4405,13 +4447,13 @@
         <v>72</v>
       </c>
       <c r="E148" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F148" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G148">
-        <v>0.26</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4425,13 +4467,13 @@
         <v>72</v>
       </c>
       <c r="E149" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F149" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="G149">
-        <v>1.25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4445,13 +4487,13 @@
         <v>72</v>
       </c>
       <c r="E150" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F150" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="G150">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4459,19 +4501,19 @@
         <v>19</v>
       </c>
       <c r="B151" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C151" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E151" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F151" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="G151">
-        <v>0.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4479,19 +4521,19 @@
         <v>19</v>
       </c>
       <c r="B152" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C152" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E152" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F152" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="G152">
-        <v>1.5</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4499,19 +4541,19 @@
         <v>19</v>
       </c>
       <c r="B153" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C153" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E153" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F153" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G153">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4525,13 +4567,13 @@
         <v>73</v>
       </c>
       <c r="E154" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F154" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G154">
-        <v>40</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4539,19 +4581,19 @@
         <v>19</v>
       </c>
       <c r="B155" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C155" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E155" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F155" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G155">
-        <v>0.26</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4559,19 +4601,19 @@
         <v>19</v>
       </c>
       <c r="B156" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C156" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E156" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F156" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="G156">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4579,16 +4621,16 @@
         <v>19</v>
       </c>
       <c r="B157" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C157" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E157" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F157" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="G157">
         <v>40</v>
@@ -4599,16 +4641,16 @@
         <v>19</v>
       </c>
       <c r="B158" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C158" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E158" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F158" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="G158">
         <v>0.26</v>
@@ -4619,16 +4661,16 @@
         <v>19</v>
       </c>
       <c r="B159" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C159" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E159" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F159" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G159">
         <v>1.5</v>
@@ -4639,16 +4681,16 @@
         <v>19</v>
       </c>
       <c r="B160" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C160" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E160" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F160" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="G160">
         <v>40</v>
@@ -4659,19 +4701,19 @@
         <v>19</v>
       </c>
       <c r="B161" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C161" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E161" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F161" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G161">
-        <v>1.05</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4679,19 +4721,19 @@
         <v>19</v>
       </c>
       <c r="B162" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C162" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E162" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F162" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G162">
-        <v>0.02</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4699,19 +4741,19 @@
         <v>19</v>
       </c>
       <c r="B163" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C163" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E163" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F163" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="G163">
-        <v>0.26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4725,13 +4767,13 @@
         <v>76</v>
       </c>
       <c r="E164" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F164" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G164">
-        <v>1.25</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4745,13 +4787,13 @@
         <v>76</v>
       </c>
       <c r="E165" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F165" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="G165">
-        <v>1.5</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4765,13 +4807,13 @@
         <v>76</v>
       </c>
       <c r="E166" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F166" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="G166">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4785,13 +4827,13 @@
         <v>76</v>
       </c>
       <c r="E167" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F167" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="G167">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4805,13 +4847,13 @@
         <v>76</v>
       </c>
       <c r="E168" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F168" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G168">
-        <v>85</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4819,19 +4861,19 @@
         <v>19</v>
       </c>
       <c r="B169" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C169" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E169" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F169" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="G169">
-        <v>1.34</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4839,19 +4881,19 @@
         <v>19</v>
       </c>
       <c r="B170" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C170" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E170" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F170" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="G170">
-        <v>0.26</v>
+        <v>80</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4859,19 +4901,19 @@
         <v>19</v>
       </c>
       <c r="B171" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C171" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E171" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F171" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="G171">
-        <v>1.5</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4885,13 +4927,13 @@
         <v>77</v>
       </c>
       <c r="E172" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F172" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="G172">
-        <v>0.85</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4905,13 +4947,13 @@
         <v>77</v>
       </c>
       <c r="E173" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F173" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G173">
-        <v>0.32</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4925,13 +4967,13 @@
         <v>77</v>
       </c>
       <c r="E174" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F174" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="G174">
-        <v>0.5</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4945,13 +4987,13 @@
         <v>77</v>
       </c>
       <c r="E175" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F175" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="G175">
-        <v>0.06</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4965,13 +5007,13 @@
         <v>77</v>
       </c>
       <c r="E176" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F176" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G176">
-        <v>0.22</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4985,13 +5027,13 @@
         <v>77</v>
       </c>
       <c r="E177" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F177" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G177">
-        <v>0.91</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -5005,10 +5047,10 @@
         <v>77</v>
       </c>
       <c r="E178" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F178" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -5025,10 +5067,10 @@
         <v>77</v>
       </c>
       <c r="E179" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F179" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G179">
         <v>85</v>
@@ -5041,14 +5083,17 @@
       <c r="B180" t="s">
         <v>51</v>
       </c>
+      <c r="C180" t="s">
+        <v>78</v>
+      </c>
       <c r="E180" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F180" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G180">
-        <v>0.2</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5058,14 +5103,17 @@
       <c r="B181" t="s">
         <v>51</v>
       </c>
+      <c r="C181" t="s">
+        <v>78</v>
+      </c>
       <c r="E181" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F181" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="G181">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -5075,14 +5123,17 @@
       <c r="B182" t="s">
         <v>51</v>
       </c>
+      <c r="C182" t="s">
+        <v>78</v>
+      </c>
       <c r="E182" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F182" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G182">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -5092,14 +5143,17 @@
       <c r="B183" t="s">
         <v>51</v>
       </c>
+      <c r="C183" t="s">
+        <v>78</v>
+      </c>
       <c r="E183" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F183" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G183">
-        <v>0.03</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -5109,14 +5163,17 @@
       <c r="B184" t="s">
         <v>51</v>
       </c>
+      <c r="C184" t="s">
+        <v>78</v>
+      </c>
       <c r="E184" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F184" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="G184">
-        <v>0.31</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -5126,14 +5183,17 @@
       <c r="B185" t="s">
         <v>51</v>
       </c>
+      <c r="C185" t="s">
+        <v>78</v>
+      </c>
       <c r="E185" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F185" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="G185">
-        <v>0.26</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -5143,14 +5203,17 @@
       <c r="B186" t="s">
         <v>51</v>
       </c>
+      <c r="C186" t="s">
+        <v>78</v>
+      </c>
       <c r="E186" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F186" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="G186">
-        <v>1.5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -5158,16 +5221,19 @@
         <v>19</v>
       </c>
       <c r="B187" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="C187" t="s">
+        <v>79</v>
       </c>
       <c r="E187" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F187" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="G187">
-        <v>25.84</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -5175,16 +5241,19 @@
         <v>19</v>
       </c>
       <c r="B188" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="C188" t="s">
+        <v>79</v>
       </c>
       <c r="E188" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F188" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G188">
-        <v>25</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -5192,16 +5261,19 @@
         <v>19</v>
       </c>
       <c r="B189" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="C189" t="s">
+        <v>79</v>
       </c>
       <c r="E189" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F189" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G189">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -5211,14 +5283,17 @@
       <c r="B190" t="s">
         <v>52</v>
       </c>
+      <c r="C190" t="s">
+        <v>79</v>
+      </c>
       <c r="E190" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F190" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="G190">
-        <v>0.31</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -5228,14 +5303,17 @@
       <c r="B191" t="s">
         <v>52</v>
       </c>
+      <c r="C191" t="s">
+        <v>79</v>
+      </c>
       <c r="E191" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F191" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G191">
-        <v>0.02</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -5245,14 +5323,17 @@
       <c r="B192" t="s">
         <v>52</v>
       </c>
+      <c r="C192" t="s">
+        <v>79</v>
+      </c>
       <c r="E192" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F192" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="G192">
-        <v>0.26</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -5262,14 +5343,17 @@
       <c r="B193" t="s">
         <v>52</v>
       </c>
+      <c r="C193" t="s">
+        <v>79</v>
+      </c>
       <c r="E193" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F193" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="G193">
-        <v>1.5</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -5279,14 +5363,17 @@
       <c r="B194" t="s">
         <v>52</v>
       </c>
+      <c r="C194" t="s">
+        <v>79</v>
+      </c>
       <c r="E194" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F194" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="G194">
-        <v>1.5</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -5296,14 +5383,17 @@
       <c r="B195" t="s">
         <v>52</v>
       </c>
+      <c r="C195" t="s">
+        <v>79</v>
+      </c>
       <c r="E195" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F195" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="G195">
-        <v>0.37</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -5313,14 +5403,17 @@
       <c r="B196" t="s">
         <v>52</v>
       </c>
+      <c r="C196" t="s">
+        <v>79</v>
+      </c>
       <c r="E196" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F196" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G196">
-        <v>20.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -5330,778 +5423,16 @@
       <c r="B197" t="s">
         <v>52</v>
       </c>
+      <c r="C197" t="s">
+        <v>79</v>
+      </c>
       <c r="E197" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F197" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="G197">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
-      <c r="A198" t="s">
-        <v>19</v>
-      </c>
-      <c r="B198" t="s">
-        <v>52</v>
-      </c>
-      <c r="E198" t="s">
-        <v>106</v>
-      </c>
-      <c r="F198" t="s">
-        <v>117</v>
-      </c>
-      <c r="G198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
-      <c r="A199" t="s">
-        <v>19</v>
-      </c>
-      <c r="B199" t="s">
-        <v>52</v>
-      </c>
-      <c r="E199" t="s">
-        <v>106</v>
-      </c>
-      <c r="F199" t="s">
-        <v>145</v>
-      </c>
-      <c r="G199">
-        <v>-14.29</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
-      <c r="A200" t="s">
-        <v>19</v>
-      </c>
-      <c r="B200" t="s">
-        <v>52</v>
-      </c>
-      <c r="E200" t="s">
-        <v>108</v>
-      </c>
-      <c r="F200" t="s">
-        <v>146</v>
-      </c>
-      <c r="G200">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
-      <c r="A201" t="s">
-        <v>19</v>
-      </c>
-      <c r="B201" t="s">
-        <v>52</v>
-      </c>
-      <c r="E201" t="s">
-        <v>108</v>
-      </c>
-      <c r="F201" t="s">
-        <v>147</v>
-      </c>
-      <c r="G201">
-        <v>9.73</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
-      <c r="A202" t="s">
-        <v>19</v>
-      </c>
-      <c r="B202" t="s">
-        <v>53</v>
-      </c>
-      <c r="E202" t="s">
-        <v>105</v>
-      </c>
-      <c r="F202" t="s">
-        <v>113</v>
-      </c>
-      <c r="G202">
-        <v>7.58</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
-      <c r="A203" t="s">
-        <v>19</v>
-      </c>
-      <c r="B203" t="s">
-        <v>53</v>
-      </c>
-      <c r="E203" t="s">
-        <v>105</v>
-      </c>
-      <c r="F203" t="s">
-        <v>133</v>
-      </c>
-      <c r="G203">
-        <v>7.16</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
-      <c r="A204" t="s">
-        <v>19</v>
-      </c>
-      <c r="B204" t="s">
-        <v>53</v>
-      </c>
-      <c r="E204" t="s">
-        <v>105</v>
-      </c>
-      <c r="F204" t="s">
-        <v>114</v>
-      </c>
-      <c r="G204">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
-      <c r="A205" t="s">
-        <v>19</v>
-      </c>
-      <c r="B205" t="s">
-        <v>53</v>
-      </c>
-      <c r="E205" t="s">
-        <v>105</v>
-      </c>
-      <c r="F205" t="s">
-        <v>115</v>
-      </c>
-      <c r="G205">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
-      <c r="A206" t="s">
-        <v>19</v>
-      </c>
-      <c r="B206" t="s">
-        <v>53</v>
-      </c>
-      <c r="E206" t="s">
-        <v>107</v>
-      </c>
-      <c r="F206" t="s">
-        <v>134</v>
-      </c>
-      <c r="G206">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
-      <c r="A207" t="s">
-        <v>19</v>
-      </c>
-      <c r="B207" t="s">
-        <v>53</v>
-      </c>
-      <c r="E207" t="s">
-        <v>107</v>
-      </c>
-      <c r="F207" t="s">
-        <v>135</v>
-      </c>
-      <c r="G207">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7">
-      <c r="A208" t="s">
-        <v>19</v>
-      </c>
-      <c r="B208" t="s">
-        <v>53</v>
-      </c>
-      <c r="E208" t="s">
-        <v>106</v>
-      </c>
-      <c r="F208" t="s">
-        <v>116</v>
-      </c>
-      <c r="G208">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
-      <c r="A209" t="s">
-        <v>19</v>
-      </c>
-      <c r="B209" t="s">
-        <v>53</v>
-      </c>
-      <c r="E209" t="s">
-        <v>106</v>
-      </c>
-      <c r="F209" t="s">
-        <v>117</v>
-      </c>
-      <c r="G209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7">
-      <c r="A210" t="s">
-        <v>19</v>
-      </c>
-      <c r="B210" t="s">
-        <v>53</v>
-      </c>
-      <c r="E210" t="s">
-        <v>108</v>
-      </c>
-      <c r="F210" t="s">
-        <v>146</v>
-      </c>
-      <c r="G210">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7">
-      <c r="A211" t="s">
-        <v>19</v>
-      </c>
-      <c r="B211" t="s">
-        <v>54</v>
-      </c>
-      <c r="E211" t="s">
-        <v>105</v>
-      </c>
-      <c r="F211" t="s">
-        <v>113</v>
-      </c>
-      <c r="G211">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7">
-      <c r="A212" t="s">
-        <v>19</v>
-      </c>
-      <c r="B212" t="s">
-        <v>54</v>
-      </c>
-      <c r="E212" t="s">
-        <v>105</v>
-      </c>
-      <c r="F212" t="s">
-        <v>133</v>
-      </c>
-      <c r="G212">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7">
-      <c r="A213" t="s">
-        <v>19</v>
-      </c>
-      <c r="B213" t="s">
-        <v>54</v>
-      </c>
-      <c r="E213" t="s">
-        <v>105</v>
-      </c>
-      <c r="F213" t="s">
-        <v>114</v>
-      </c>
-      <c r="G213">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7">
-      <c r="A214" t="s">
-        <v>19</v>
-      </c>
-      <c r="B214" t="s">
-        <v>54</v>
-      </c>
-      <c r="E214" t="s">
-        <v>105</v>
-      </c>
-      <c r="F214" t="s">
-        <v>115</v>
-      </c>
-      <c r="G214">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7">
-      <c r="A215" t="s">
-        <v>19</v>
-      </c>
-      <c r="B215" t="s">
-        <v>54</v>
-      </c>
-      <c r="E215" t="s">
-        <v>107</v>
-      </c>
-      <c r="F215" t="s">
-        <v>134</v>
-      </c>
-      <c r="G215">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7">
-      <c r="A216" t="s">
-        <v>19</v>
-      </c>
-      <c r="B216" t="s">
-        <v>54</v>
-      </c>
-      <c r="E216" t="s">
-        <v>107</v>
-      </c>
-      <c r="F216" t="s">
-        <v>135</v>
-      </c>
-      <c r="G216">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7">
-      <c r="A217" t="s">
-        <v>19</v>
-      </c>
-      <c r="B217" t="s">
-        <v>54</v>
-      </c>
-      <c r="E217" t="s">
-        <v>106</v>
-      </c>
-      <c r="F217" t="s">
-        <v>120</v>
-      </c>
-      <c r="G217">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7">
-      <c r="A218" t="s">
-        <v>19</v>
-      </c>
-      <c r="B218" t="s">
-        <v>54</v>
-      </c>
-      <c r="E218" t="s">
-        <v>106</v>
-      </c>
-      <c r="F218" t="s">
-        <v>121</v>
-      </c>
-      <c r="G218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7">
-      <c r="A219" t="s">
-        <v>19</v>
-      </c>
-      <c r="B219" t="s">
-        <v>54</v>
-      </c>
-      <c r="E219" t="s">
-        <v>106</v>
-      </c>
-      <c r="F219" t="s">
-        <v>117</v>
-      </c>
-      <c r="G219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7">
-      <c r="A220" t="s">
-        <v>19</v>
-      </c>
-      <c r="B220" t="s">
-        <v>55</v>
-      </c>
-      <c r="E220" t="s">
-        <v>105</v>
-      </c>
-      <c r="F220" t="s">
-        <v>113</v>
-      </c>
-      <c r="G220">
-        <v>2.95</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7">
-      <c r="A221" t="s">
-        <v>19</v>
-      </c>
-      <c r="B221" t="s">
-        <v>55</v>
-      </c>
-      <c r="E221" t="s">
-        <v>105</v>
-      </c>
-      <c r="F221" t="s">
-        <v>114</v>
-      </c>
-      <c r="G221">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7">
-      <c r="A222" t="s">
-        <v>19</v>
-      </c>
-      <c r="B222" t="s">
-        <v>55</v>
-      </c>
-      <c r="E222" t="s">
-        <v>105</v>
-      </c>
-      <c r="F222" t="s">
-        <v>115</v>
-      </c>
-      <c r="G222">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7">
-      <c r="A223" t="s">
-        <v>19</v>
-      </c>
-      <c r="B223" t="s">
-        <v>55</v>
-      </c>
-      <c r="E223" t="s">
-        <v>107</v>
-      </c>
-      <c r="F223" t="s">
-        <v>109</v>
-      </c>
-      <c r="G223">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7">
-      <c r="A224" t="s">
-        <v>19</v>
-      </c>
-      <c r="B224" t="s">
-        <v>55</v>
-      </c>
-      <c r="E224" t="s">
-        <v>107</v>
-      </c>
-      <c r="F224" t="s">
-        <v>118</v>
-      </c>
-      <c r="G224">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
-      <c r="A225" t="s">
-        <v>19</v>
-      </c>
-      <c r="B225" t="s">
-        <v>55</v>
-      </c>
-      <c r="E225" t="s">
-        <v>107</v>
-      </c>
-      <c r="F225" t="s">
-        <v>119</v>
-      </c>
-      <c r="G225">
-        <v>2.33</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7">
-      <c r="A226" t="s">
-        <v>19</v>
-      </c>
-      <c r="B226" t="s">
-        <v>55</v>
-      </c>
-      <c r="E226" t="s">
-        <v>106</v>
-      </c>
-      <c r="F226" t="s">
-        <v>148</v>
-      </c>
-      <c r="G226">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7">
-      <c r="A227" t="s">
-        <v>19</v>
-      </c>
-      <c r="B227" t="s">
-        <v>55</v>
-      </c>
-      <c r="E227" t="s">
-        <v>106</v>
-      </c>
-      <c r="F227" t="s">
-        <v>149</v>
-      </c>
-      <c r="G227">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7">
-      <c r="A228" t="s">
-        <v>19</v>
-      </c>
-      <c r="B228" t="s">
-        <v>56</v>
-      </c>
-      <c r="E228" t="s">
-        <v>105</v>
-      </c>
-      <c r="F228" t="s">
-        <v>113</v>
-      </c>
-      <c r="G228">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7">
-      <c r="A229" t="s">
-        <v>19</v>
-      </c>
-      <c r="B229" t="s">
-        <v>56</v>
-      </c>
-      <c r="E229" t="s">
-        <v>105</v>
-      </c>
-      <c r="F229" t="s">
-        <v>133</v>
-      </c>
-      <c r="G229">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7">
-      <c r="A230" t="s">
-        <v>19</v>
-      </c>
-      <c r="B230" t="s">
-        <v>56</v>
-      </c>
-      <c r="E230" t="s">
-        <v>105</v>
-      </c>
-      <c r="F230" t="s">
-        <v>114</v>
-      </c>
-      <c r="G230">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7">
-      <c r="A231" t="s">
-        <v>19</v>
-      </c>
-      <c r="B231" t="s">
-        <v>56</v>
-      </c>
-      <c r="E231" t="s">
-        <v>105</v>
-      </c>
-      <c r="F231" t="s">
-        <v>115</v>
-      </c>
-      <c r="G231">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7">
-      <c r="A232" t="s">
-        <v>19</v>
-      </c>
-      <c r="B232" t="s">
-        <v>56</v>
-      </c>
-      <c r="E232" t="s">
-        <v>107</v>
-      </c>
-      <c r="F232" t="s">
-        <v>134</v>
-      </c>
-      <c r="G232">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7">
-      <c r="A233" t="s">
-        <v>19</v>
-      </c>
-      <c r="B233" t="s">
-        <v>56</v>
-      </c>
-      <c r="E233" t="s">
-        <v>107</v>
-      </c>
-      <c r="F233" t="s">
-        <v>135</v>
-      </c>
-      <c r="G233">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7">
-      <c r="A234" t="s">
-        <v>19</v>
-      </c>
-      <c r="B234" t="s">
-        <v>56</v>
-      </c>
-      <c r="E234" t="s">
-        <v>106</v>
-      </c>
-      <c r="F234" t="s">
-        <v>136</v>
-      </c>
-      <c r="G234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7">
-      <c r="A235" t="s">
-        <v>19</v>
-      </c>
-      <c r="B235" t="s">
-        <v>56</v>
-      </c>
-      <c r="E235" t="s">
-        <v>106</v>
-      </c>
-      <c r="F235" t="s">
-        <v>137</v>
-      </c>
-      <c r="G235">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7">
-      <c r="A236" t="s">
-        <v>19</v>
-      </c>
-      <c r="B236" t="s">
-        <v>57</v>
-      </c>
-      <c r="E236" t="s">
-        <v>105</v>
-      </c>
-      <c r="F236" t="s">
-        <v>113</v>
-      </c>
-      <c r="G236">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7">
-      <c r="A237" t="s">
-        <v>19</v>
-      </c>
-      <c r="B237" t="s">
-        <v>57</v>
-      </c>
-      <c r="E237" t="s">
-        <v>105</v>
-      </c>
-      <c r="F237" t="s">
-        <v>133</v>
-      </c>
-      <c r="G237">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7">
-      <c r="A238" t="s">
-        <v>19</v>
-      </c>
-      <c r="B238" t="s">
-        <v>57</v>
-      </c>
-      <c r="E238" t="s">
-        <v>105</v>
-      </c>
-      <c r="F238" t="s">
-        <v>114</v>
-      </c>
-      <c r="G238">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7">
-      <c r="A239" t="s">
-        <v>19</v>
-      </c>
-      <c r="B239" t="s">
-        <v>57</v>
-      </c>
-      <c r="E239" t="s">
-        <v>105</v>
-      </c>
-      <c r="F239" t="s">
-        <v>115</v>
-      </c>
-      <c r="G239">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7">
-      <c r="A240" t="s">
-        <v>19</v>
-      </c>
-      <c r="B240" t="s">
-        <v>57</v>
-      </c>
-      <c r="E240" t="s">
-        <v>107</v>
-      </c>
-      <c r="F240" t="s">
-        <v>134</v>
-      </c>
-      <c r="G240">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7">
-      <c r="A241" t="s">
-        <v>19</v>
-      </c>
-      <c r="B241" t="s">
-        <v>57</v>
-      </c>
-      <c r="E241" t="s">
-        <v>107</v>
-      </c>
-      <c r="F241" t="s">
-        <v>135</v>
-      </c>
-      <c r="G241">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7">
-      <c r="A242" t="s">
-        <v>19</v>
-      </c>
-      <c r="B242" t="s">
-        <v>57</v>
-      </c>
-      <c r="E242" t="s">
-        <v>106</v>
-      </c>
-      <c r="F242" t="s">
-        <v>137</v>
-      </c>
-      <c r="G242">
         <v>85</v>
       </c>
     </row>
@@ -6112,7 +5443,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6132,10 +5463,10 @@
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6149,10 +5480,10 @@
         <v>58</v>
       </c>
       <c r="E2">
-        <v>42.64</v>
+        <v>53.34</v>
       </c>
       <c r="F2">
-        <v>1584.65</v>
+        <v>1268.73</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6169,7 +5500,7 @@
         <v>42.64</v>
       </c>
       <c r="F3">
-        <v>1584.65</v>
+        <v>1268.73</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6183,10 +5514,10 @@
         <v>60</v>
       </c>
       <c r="E4">
-        <v>67.78</v>
+        <v>64.68000000000001</v>
       </c>
       <c r="F4">
-        <v>1584.65</v>
+        <v>1268.73</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6200,10 +5531,10 @@
         <v>61</v>
       </c>
       <c r="E5">
-        <v>37.81</v>
+        <v>74.26000000000001</v>
       </c>
       <c r="F5">
-        <v>1584.65</v>
+        <v>1268.73</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6217,10 +5548,10 @@
         <v>62</v>
       </c>
       <c r="E6">
-        <v>37.81</v>
+        <v>42.64</v>
       </c>
       <c r="F6">
-        <v>1584.65</v>
+        <v>1268.73</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6234,10 +5565,10 @@
         <v>63</v>
       </c>
       <c r="E7">
-        <v>62.75</v>
+        <v>67.78</v>
       </c>
       <c r="F7">
-        <v>1584.65</v>
+        <v>1268.73</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6251,10 +5582,10 @@
         <v>64</v>
       </c>
       <c r="E8">
-        <v>62.45</v>
+        <v>37.81</v>
       </c>
       <c r="F8">
-        <v>1584.65</v>
+        <v>1268.73</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6268,10 +5599,10 @@
         <v>65</v>
       </c>
       <c r="E9">
-        <v>62.45</v>
+        <v>37.81</v>
       </c>
       <c r="F9">
-        <v>1584.65</v>
+        <v>1268.73</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6285,10 +5616,10 @@
         <v>66</v>
       </c>
       <c r="E10">
-        <v>37.6</v>
+        <v>62.75</v>
       </c>
       <c r="F10">
-        <v>1584.65</v>
+        <v>1268.73</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6302,10 +5633,10 @@
         <v>67</v>
       </c>
       <c r="E11">
-        <v>62.75</v>
+        <v>64.25999999999999</v>
       </c>
       <c r="F11">
-        <v>1584.65</v>
+        <v>1268.73</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6319,10 +5650,10 @@
         <v>68</v>
       </c>
       <c r="E12">
-        <v>38.28</v>
+        <v>37.6</v>
       </c>
       <c r="F12">
-        <v>1584.65</v>
+        <v>1268.73</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6336,10 +5667,10 @@
         <v>69</v>
       </c>
       <c r="E13">
-        <v>63.98</v>
+        <v>62.75</v>
       </c>
       <c r="F13">
-        <v>1584.65</v>
+        <v>1268.73</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6353,10 +5684,10 @@
         <v>70</v>
       </c>
       <c r="E14">
-        <v>37.28</v>
+        <v>38.28</v>
       </c>
       <c r="F14">
-        <v>1584.65</v>
+        <v>1268.73</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6370,10 +5701,10 @@
         <v>71</v>
       </c>
       <c r="E15">
-        <v>37.6</v>
+        <v>63.98</v>
       </c>
       <c r="F15">
-        <v>1584.65</v>
+        <v>1268.73</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6387,10 +5718,10 @@
         <v>72</v>
       </c>
       <c r="E16">
-        <v>41.51</v>
+        <v>37.6</v>
       </c>
       <c r="F16">
-        <v>1584.65</v>
+        <v>1268.73</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6407,7 +5738,7 @@
         <v>41.91</v>
       </c>
       <c r="F17">
-        <v>1584.65</v>
+        <v>1268.73</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6424,7 +5755,7 @@
         <v>41.76</v>
       </c>
       <c r="F18">
-        <v>1584.65</v>
+        <v>1268.73</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6441,7 +5772,7 @@
         <v>41.76</v>
       </c>
       <c r="F19">
-        <v>1584.65</v>
+        <v>1268.73</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6455,10 +5786,10 @@
         <v>76</v>
       </c>
       <c r="E20">
-        <v>90.81</v>
+        <v>81.34</v>
       </c>
       <c r="F20">
-        <v>1584.65</v>
+        <v>1268.73</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6472,10 +5803,10 @@
         <v>77</v>
       </c>
       <c r="E21">
-        <v>90.95999999999999</v>
+        <v>91.41</v>
       </c>
       <c r="F21">
-        <v>1584.65</v>
+        <v>1268.73</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6485,11 +5816,14 @@
       <c r="B22" t="s">
         <v>51</v>
       </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
       <c r="E22">
-        <v>53.34</v>
+        <v>91.41</v>
       </c>
       <c r="F22">
-        <v>1584.65</v>
+        <v>1268.73</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6499,81 +5833,14 @@
       <c r="B23" t="s">
         <v>52</v>
       </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
       <c r="E23">
-        <v>64.68000000000001</v>
+        <v>90.95999999999999</v>
       </c>
       <c r="F23">
-        <v>1584.65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24">
-        <v>95.68000000000001</v>
-      </c>
-      <c r="F24">
-        <v>1584.65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25">
-        <v>64.25999999999999</v>
-      </c>
-      <c r="F25">
-        <v>1584.65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26">
-        <v>81.34</v>
-      </c>
-      <c r="F26">
-        <v>1584.65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27">
-        <v>91.41</v>
-      </c>
-      <c r="F27">
-        <v>1584.65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28">
-        <v>91.41</v>
-      </c>
-      <c r="F28">
-        <v>1584.65</v>
+        <v>1268.73</v>
       </c>
     </row>
   </sheetData>
